--- a/biology/Biochimie/Caspase_4/Caspase_4.xlsx
+++ b/biology/Biochimie/Caspase_4/Caspase_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La caspase 4 est une protéase à cystéine de la famille des caspases. Elle catalyse le clivage des chaînes polypeptidiques au niveau de séquences ayant un résidu d'aspartate en P1, avec une préférence pour les séquences Tyr–Val–Ala–Asp-|- et Asp–Glu–Val–Asp-|-.
-Elle contient du côté N-terminal un domaine CARD (en) qui joue un rôle dans l'activation de la proenzyme[2],[3],[4]. Cette enzyme est capable d'autoclivage, et peut également cliver la procaspase 1 pour en libérer la sous-unité p30, mais, contrairement à la caspase 1, demeure très peu efficace pour produire de l'Interleukine 1β à partir de la pro-interleukine 1β[5],[6]. La caspase 4 et la caspase 5 clivent la procaspase 3 pour en libérer la petite sous-unité p12 mais pas la grande sous-unité p17[2]. L'acétyl–Tyr–Val–Ala–Asp–CHO, inhibiteur de la caspase 1, inhibe également cette enzyme, mais plus lentement[6].
+Elle contient du côté N-terminal un domaine CARD (en) qui joue un rôle dans l'activation de la proenzyme. Cette enzyme est capable d'autoclivage, et peut également cliver la procaspase 1 pour en libérer la sous-unité p30, mais, contrairement à la caspase 1, demeure très peu efficace pour produire de l'Interleukine 1β à partir de la pro-interleukine 1β,. La caspase 4 et la caspase 5 clivent la procaspase 3 pour en libérer la petite sous-unité p12 mais pas la grande sous-unité p17. L'acétyl–Tyr–Val–Ala–Asp–CHO, inhibiteur de la caspase 1, inhibe également cette enzyme, mais plus lentement.
 </t>
         </is>
       </c>
